--- a/data/csv/stats_batting_raw_tsl_2024_tmp.xlsx
+++ b/data/csv/stats_batting_raw_tsl_2024_tmp.xlsx
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="139">
-  <si>
-    <t xml:space="preserve">Surname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="181">
+  <si>
+    <t xml:space="preserve">Player</t>
   </si>
   <si>
     <t xml:space="preserve">Team</t>
@@ -55,13 +52,13 @@
     <t xml:space="preserve">TB</t>
   </si>
   <si>
-    <t xml:space="preserve"> AVG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLG%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OB%</t>
+    <t xml:space="preserve">AVG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SLG%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OB%</t>
   </si>
   <si>
     <t xml:space="preserve">OPS</t>
@@ -88,6 +85,9 @@
     <t xml:space="preserve">SB</t>
   </si>
   <si>
+    <t xml:space="preserve">ATT</t>
+  </si>
+  <si>
     <t xml:space="preserve">CS</t>
   </si>
   <si>
@@ -97,7 +97,133 @@
     <t xml:space="preserve">RICARDO</t>
   </si>
   <si>
-    <t xml:space="preserve">ATL</t>
+    <t xml:space="preserve"> ATLANTA...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLOMBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ORIOLES..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GONZALEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAYAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DODGERS....</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZCUY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSHUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TAMPA........</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAFAEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DODGERS.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLENMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEM OUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TAMPA...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ORIOLES.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAINER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ATLANTA..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEVIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TAMPA.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSELMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADRIGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ATLANTA.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIEMEYER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUINTANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTILLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TAMPA..</t>
   </si>
   <si>
     <t xml:space="preserve">ARAYA</t>
@@ -106,85 +232,13 @@
     <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t xml:space="preserve">COLOMBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOVAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODRIGUEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAINER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZCUY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSHUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASTILLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIEMEYER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINN</t>
+    <t xml:space="preserve"> ATLANTA...........</t>
   </si>
   <si>
     <t xml:space="preserve">NARANJO</t>
   </si>
   <si>
-    <t xml:space="preserve">CRUZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAFAEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KEVIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLENMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEM OUDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANSELMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUINTANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MADRIGAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIC</t>
+    <t xml:space="preserve"> ORIOLES...</t>
   </si>
   <si>
     <t xml:space="preserve">ASCANIO</t>
@@ -193,13 +247,58 @@
     <t xml:space="preserve">CARLOS</t>
   </si>
   <si>
+    <t xml:space="preserve"> TAMPA......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARDINALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DODGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUISFER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUARIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ATLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ORIOLES....</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALONSO</t>
   </si>
   <si>
-    <t xml:space="preserve">GARCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUISFER</t>
+    <t xml:space="preserve"> DODGERS.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROJAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAMBERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDREA</t>
   </si>
   <si>
     <t xml:space="preserve">MILANO</t>
@@ -208,10 +307,16 @@
     <t xml:space="preserve">MANUEL</t>
   </si>
   <si>
-    <t xml:space="preserve">GAMBERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDREA</t>
+    <t xml:space="preserve"> TAMPA.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ORIOLES..........</t>
   </si>
   <si>
     <t xml:space="preserve">SPECK</t>
@@ -220,16 +325,16 @@
     <t xml:space="preserve">JURI</t>
   </si>
   <si>
-    <t xml:space="preserve">MONTIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GONZALEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAYAN</t>
+    <t xml:space="preserve"> DODGERS........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRASCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREIONIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DODGERS.</t>
   </si>
   <si>
     <t xml:space="preserve">LAMONJCA</t>
@@ -238,52 +343,58 @@
     <t xml:space="preserve">MIRKO</t>
   </si>
   <si>
-    <t xml:space="preserve">CARDINALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROJAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANGEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRASCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREIONIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUARIN</t>
-  </si>
-  <si>
     <t xml:space="preserve">DAVIDE</t>
   </si>
   <si>
+    <t xml:space="preserve">GANASSI</t>
+  </si>
+  <si>
     <t xml:space="preserve">BALICE</t>
   </si>
   <si>
     <t xml:space="preserve">ALEX</t>
   </si>
   <si>
+    <t xml:space="preserve"> ATLANTA.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TAMPA..........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARGAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ATLANTA......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VRANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMAN</t>
+  </si>
+  <si>
     <t xml:space="preserve">BENCOMO</t>
   </si>
   <si>
     <t xml:space="preserve">JOSE ANGEL</t>
   </si>
   <si>
-    <t xml:space="preserve">VARGAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIEGO</t>
+    <t xml:space="preserve"> ATLANTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERKELBACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENNETT</t>
   </si>
   <si>
     <t xml:space="preserve">SWAAK</t>
@@ -292,13 +403,16 @@
     <t xml:space="preserve">BLUE</t>
   </si>
   <si>
-    <t xml:space="preserve">MERKELBACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENNETT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GANASSI</t>
+    <t xml:space="preserve"> ORIOLES........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOAN KELLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ATLANTA.</t>
   </si>
   <si>
     <t xml:space="preserve">OTAL TORO</t>
@@ -307,22 +421,7 @@
     <t xml:space="preserve">ALEXANDER</t>
   </si>
   <si>
-    <t xml:space="preserve">FRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOAN KELLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VRANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROMAN</t>
+    <t xml:space="preserve"> ORIOLE</t>
   </si>
   <si>
     <t xml:space="preserve">INFANTE</t>
@@ -337,22 +436,34 @@
     <t xml:space="preserve">MIGUEL</t>
   </si>
   <si>
+    <t xml:space="preserve"> DODGERS......</t>
+  </si>
+  <si>
     <t xml:space="preserve">WALO</t>
   </si>
   <si>
     <t xml:space="preserve">SEBASTIAN</t>
   </si>
   <si>
+    <t xml:space="preserve">EVIAN ROMERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JORGE</t>
+  </si>
+  <si>
     <t xml:space="preserve">KOCH</t>
   </si>
   <si>
     <t xml:space="preserve">TOBIAS</t>
   </si>
   <si>
-    <t xml:space="preserve">EVIAN ROMERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JORGE</t>
+    <t xml:space="preserve"> ORIOLES.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERUZZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATIS</t>
   </si>
   <si>
     <t xml:space="preserve">GORTEMULDER</t>
@@ -361,12 +472,6 @@
     <t xml:space="preserve">PEPIJN</t>
   </si>
   <si>
-    <t xml:space="preserve">PERUZZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATIS</t>
-  </si>
-  <si>
     <t xml:space="preserve">ROCCO</t>
   </si>
   <si>
@@ -376,6 +481,9 @@
     <t xml:space="preserve">REGAL</t>
   </si>
   <si>
+    <t xml:space="preserve"> ORIOLES......</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZIRONI</t>
   </si>
   <si>
@@ -388,6 +496,9 @@
     <t xml:space="preserve">MARCEL</t>
   </si>
   <si>
+    <t xml:space="preserve"> DODGERS...</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROLDAN</t>
   </si>
   <si>
@@ -397,6 +508,9 @@
     <t xml:space="preserve">DANIELE</t>
   </si>
   <si>
+    <t xml:space="preserve"> ORIOLES.</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHINEA</t>
   </si>
   <si>
@@ -421,19 +535,31 @@
     <t xml:space="preserve">MATTEO</t>
   </si>
   <si>
+    <t xml:space="preserve"> ATLANTA....</t>
+  </si>
+  <si>
     <t xml:space="preserve">BONGE</t>
   </si>
   <si>
     <t xml:space="preserve">JAN</t>
   </si>
   <si>
+    <t xml:space="preserve"> DODGERS.........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAMBRANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRAHAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DODGERS..</t>
+  </si>
+  <si>
     <t xml:space="preserve">JUAN</t>
   </si>
   <si>
-    <t xml:space="preserve">ZAMBRANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABRAHAM</t>
+    <t xml:space="preserve"> ATLANTA........</t>
   </si>
   <si>
     <t xml:space="preserve">SERRA</t>
@@ -443,8 +569,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -510,8 +637,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -638,101 +769,100 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W62"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y4" activeCellId="0" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="3.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="3.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="6.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="5.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="5.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="5.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="3.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="21" style="0" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="3.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="5.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="4.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="5.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="8.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -746,50 +876,45 @@
       <c r="C2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>15</v>
+      <c r="D2" s="0" t="str">
+        <f aca="false">MID(C2,1,4)</f>
+        <v> ATL</v>
       </c>
       <c r="E2" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="H2" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="L2" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>1.8</v>
-      </c>
       <c r="N2" s="0" t="n">
-        <v>0.762</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>6</v>
+        <v>1.588</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>0</v>
@@ -798,66 +923,68 @@
         <v>0</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <f aca="false">X2-W2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="D3" s="0" t="str">
+        <f aca="false">MID(C3,1,4)</f>
+        <v> ORI</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>0</v>
@@ -868,28 +995,36 @@
       <c r="V3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W3" s="0" t="n">
-        <v>0</v>
+      <c r="W3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <f aca="false">X3-W3</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="D4" s="0" t="str">
+        <f aca="false">MID(C4,1,4)</f>
+        <v> DOD</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>5</v>
@@ -898,34 +1033,28 @@
         <v>0</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>6</v>
+        <v>0.727</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T4" s="0" t="n">
         <v>0</v>
@@ -934,135 +1063,139 @@
         <v>0</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="W4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <f aca="false">X4-W4</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" s="0" t="str">
+        <f aca="false">MID(C5,1,4)</f>
+        <v> TAM</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="L5" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Q5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="R5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L5" s="0" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>0.636</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>0.538</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>0</v>
+      <c r="Y5" s="0" t="n">
+        <f aca="false">X5-W5</f>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>11</v>
+        <v>41</v>
+      </c>
+      <c r="D6" s="0" t="str">
+        <f aca="false">MID(C6,1,4)</f>
+        <v> DOD</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>0.636</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T6" s="0" t="n">
         <v>0</v>
       </c>
@@ -1070,66 +1203,68 @@
         <v>0</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="W6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <f aca="false">X6-W6</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="D7" s="0" t="str">
+        <f aca="false">MID(C7,1,4)</f>
+        <v> TAM</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>1.15</v>
+        <v>8</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T7" s="0" t="n">
         <v>0</v>
@@ -1138,66 +1273,68 @@
         <v>0</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="W7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <f aca="false">X7-W7</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="D8" s="0" t="str">
+        <f aca="false">MID(C8,1,4)</f>
+        <v> ORI</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>0.389</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>0.556</v>
-      </c>
       <c r="N8" s="0" t="n">
-        <v>0.542</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>6</v>
+        <v>0.538</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>0</v>
@@ -1206,66 +1343,68 @@
         <v>0</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="W8" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <f aca="false">X8-W8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>24</v>
+        <v>52</v>
+      </c>
+      <c r="D9" s="0" t="str">
+        <f aca="false">MID(C9,1,4)</f>
+        <v> ATL</v>
       </c>
       <c r="E9" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0" t="n">
+      <c r="N9" s="0" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="Q9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="K9" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>0.464</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="0" t="n">
         <v>0</v>
@@ -1274,66 +1413,68 @@
         <v>0</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="W9" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <f aca="false">X9-W9</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="D10" s="0" t="str">
+        <f aca="false">MID(C10,1,4)</f>
+        <v> TAM</v>
       </c>
       <c r="E10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>0.438</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="S10" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T10" s="0" t="n">
         <v>0</v>
@@ -1345,30 +1486,38 @@
         <v>0</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <f aca="false">X10-W10</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="D11" s="0" t="str">
+        <f aca="false">MID(C11,1,4)</f>
+        <v> DOD</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
@@ -1377,168 +1526,166 @@
         <v>0</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L11" s="0" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N11" s="0" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="P11" s="0" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q11" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="W11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <f aca="false">X11-W11</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="0" t="str">
+        <f aca="false">MID(C12,1,4)</f>
+        <v> ATL</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" s="0" t="n">
+      <c r="X12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <f aca="false">X12-W12</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>8</v>
+        <v>49</v>
+      </c>
+      <c r="D13" s="0" t="str">
+        <f aca="false">MID(C13,1,4)</f>
+        <v> ORI</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>0.875</v>
+        <v>17</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>2</v>
+        <v>0.586</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="S13" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T13" s="0" t="n">
         <v>0</v>
       </c>
@@ -1546,66 +1693,68 @@
         <v>0</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="0" t="n">
+        <f aca="false">X13-W13</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="D14" s="0" t="str">
+        <f aca="false">MID(C14,1,4)</f>
+        <v> ATL</v>
       </c>
       <c r="E14" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G14" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>0.368</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>0.368</v>
+        <v>13</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>8</v>
+        <v>0.542</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T14" s="0" t="n">
         <v>0</v>
@@ -1614,67 +1763,69 @@
         <v>0</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="W14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <f aca="false">X14-W14</f>
+        <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>23</v>
+        <v>67</v>
+      </c>
+      <c r="D15" s="0" t="str">
+        <f aca="false">MID(C15,1,4)</f>
+        <v> TAM</v>
       </c>
       <c r="E15" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>13</v>
-      </c>
       <c r="L15" s="0" t="n">
-        <v>0.348</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>0.565</v>
+        <v>10</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="P15" s="0" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T15" s="0" t="n">
         <v>0</v>
       </c>
@@ -1682,33 +1833,41 @@
         <v>0</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y15" s="0" t="n">
+        <f aca="false">X15-W15</f>
         <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>22</v>
+        <v>70</v>
+      </c>
+      <c r="D16" s="0" t="str">
+        <f aca="false">MID(C16,1,4)</f>
+        <v> ATL</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
@@ -1717,99 +1876,95 @@
         <v>0</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>0.318</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>0.409</v>
+        <v>3</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.483</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="Q16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="0" t="n">
+        <f aca="false">X16-W16</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>22</v>
+        <v>72</v>
+      </c>
+      <c r="D17" s="0" t="str">
+        <f aca="false">MID(C17,1,4)</f>
+        <v> ORI</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>0.318</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N17" s="0" t="n">
-        <v>0.483</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>6</v>
+        <v>0.35</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T17" s="0" t="n">
         <v>0</v>
@@ -1818,66 +1973,68 @@
         <v>0</v>
       </c>
       <c r="V17" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W17" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="0" t="n">
+        <f aca="false">X17-W17</f>
+        <v>2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>19</v>
+        <v>75</v>
+      </c>
+      <c r="D18" s="0" t="str">
+        <f aca="false">MID(C18,1,4)</f>
+        <v> TAM</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>0.474</v>
+        <v>11</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P18" s="0" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="Q18" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="Q18" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="R18" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T18" s="0" t="n">
         <v>0</v>
@@ -1886,66 +2043,68 @@
         <v>0</v>
       </c>
       <c r="V18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X18" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="Y18" s="0" t="n">
+        <f aca="false">X18-W18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>13</v>
+        <v>78</v>
+      </c>
+      <c r="D19" s="0" t="str">
+        <f aca="false">MID(C19,1,4)</f>
+        <v> DOD</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>0.385</v>
+        <v>12</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="P19" s="0" t="n">
-        <v>1</v>
+        <v>0.387</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="S19" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T19" s="0" t="n">
         <v>1</v>
@@ -1956,31 +2115,39 @@
       <c r="V19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W19" s="0" t="n">
-        <v>0</v>
+      <c r="W19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y19" s="0" t="n">
+        <f aca="false">X19-W19</f>
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>23</v>
+        <v>75</v>
+      </c>
+      <c r="D20" s="0" t="str">
+        <f aca="false">MID(C20,1,4)</f>
+        <v> TAM</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1</v>
@@ -1989,168 +2156,166 @@
         <v>0</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>0.304</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>0.478</v>
+        <v>5</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>0.467</v>
-      </c>
-      <c r="P20" s="0" t="n">
-        <v>6</v>
+        <v>0.357</v>
       </c>
       <c r="Q20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="U20" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <f aca="false">X20-W20</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="0" t="str">
+        <f aca="false">MID(C21,1,4)</f>
+        <v> ATL</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="0" t="n">
-        <v>0</v>
+      <c r="X21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <f aca="false">X21-W21</f>
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>14</v>
+        <v>86</v>
+      </c>
+      <c r="D22" s="0" t="str">
+        <f aca="false">MID(C22,1,4)</f>
+        <v> ORI</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="Q22" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K22" s="0" t="n">
+      <c r="R22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L22" s="0" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="P22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T22" s="0" t="n">
         <v>0</v>
       </c>
@@ -2158,202 +2323,208 @@
         <v>0</v>
       </c>
       <c r="V22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="0" t="n">
+        <f aca="false">X22-W22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C23" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="0" t="str">
+        <f aca="false">MID(C23,1,4)</f>
+        <v> DOD</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L23" s="0" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="N23" s="0" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="P23" s="0" t="n">
+      <c r="X23" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" s="0" t="n">
+      <c r="Y23" s="0" t="n">
+        <f aca="false">X23-W23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="D24" s="0" t="str">
+        <f aca="false">MID(C24,1,4)</f>
+        <v> DOD</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K24" s="0" t="n">
+      <c r="T24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X24" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L24" s="0" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="M24" s="0" t="n">
-        <v>0.714</v>
-      </c>
-      <c r="N24" s="0" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="P24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W24" s="0" t="n">
-        <v>0</v>
+      <c r="Y24" s="0" t="n">
+        <f aca="false">X24-W24</f>
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="D25" s="0" t="str">
+        <f aca="false">MID(C25,1,4)</f>
+        <v> ORI</v>
+      </c>
+      <c r="E25" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E25" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="F25" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>0.273</v>
-      </c>
-      <c r="M25" s="0" t="n">
-        <v>0.455</v>
+        <v>3</v>
       </c>
       <c r="N25" s="0" t="n">
         <v>0.273</v>
       </c>
-      <c r="P25" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Q25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S25" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T25" s="0" t="n">
         <v>0</v>
@@ -2365,131 +2536,135 @@
         <v>0</v>
       </c>
       <c r="W25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="0" t="n">
+        <f aca="false">X25-W25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="D26" s="0" t="str">
+        <f aca="false">MID(C26,1,4)</f>
+        <v> TAM</v>
+      </c>
+      <c r="E26" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="E26" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="F26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G26" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G26" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="H26" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>0.269</v>
-      </c>
-      <c r="M26" s="0" t="n">
-        <v>0.308</v>
+        <v>11</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>0.367</v>
-      </c>
-      <c r="P26" s="0" t="n">
-        <v>3</v>
+        <v>0.423</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="S26" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T26" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V26" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="W26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y26" s="0" t="n">
+        <f aca="false">X26-W26</f>
         <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="D27" s="0" t="str">
+        <f aca="false">MID(C27,1,4)</f>
+        <v> ORI</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>0.263</v>
-      </c>
-      <c r="M27" s="0" t="n">
-        <v>0.316</v>
+        <v>8</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="P27" s="0" t="n">
-        <v>5</v>
+        <v>0.296</v>
       </c>
       <c r="Q27" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R27" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S27" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T27" s="0" t="n">
         <v>0</v>
@@ -2498,67 +2673,69 @@
         <v>0</v>
       </c>
       <c r="V27" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="W27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="0" t="n">
+        <f aca="false">X27-W27</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>24</v>
+        <v>101</v>
+      </c>
+      <c r="D28" s="0" t="str">
+        <f aca="false">MID(C28,1,4)</f>
+        <v> DOD</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="L28" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M28" s="0" t="n">
-        <v>0.292</v>
-      </c>
-      <c r="N28" s="0" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="P28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S28" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T28" s="0" t="n">
         <v>0</v>
       </c>
@@ -2566,36 +2743,44 @@
         <v>0</v>
       </c>
       <c r="V28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="0" t="n">
+        <f aca="false">X28-W28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="D29" s="0" t="str">
+        <f aca="false">MID(C29,1,4)</f>
+        <v> DOD</v>
+      </c>
+      <c r="E29" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E29" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="F29" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>0</v>
@@ -2604,28 +2789,22 @@
         <v>0</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" s="0" t="n">
         <v>0.375</v>
       </c>
-      <c r="N29" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="P29" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Q29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R29" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S29" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T29" s="0" t="n">
         <v>0</v>
@@ -2637,64 +2816,66 @@
         <v>0</v>
       </c>
       <c r="W29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="0" t="n">
+        <f aca="false">X29-W29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="D30" s="0" t="str">
+        <f aca="false">MID(C30,1,4)</f>
+        <v> ORI</v>
+      </c>
+      <c r="E30" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E30" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="F30" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L30" s="0" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="M30" s="0" t="n">
+      <c r="N30" s="0" t="n">
         <v>0.385</v>
       </c>
-      <c r="N30" s="0" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="P30" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="Q30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="S30" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T30" s="0" t="n">
         <v>0</v>
       </c>
@@ -2702,67 +2883,69 @@
         <v>0</v>
       </c>
       <c r="V30" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W30" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="X30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="0" t="n">
+        <f aca="false">X30-W30</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="D31" s="0" t="str">
+        <f aca="false">MID(C31,1,4)</f>
+        <v> DOD</v>
+      </c>
+      <c r="E31" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E31" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="F31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G31" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="H31" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L31" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L31" s="0" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="M31" s="0" t="n">
+      <c r="N31" s="0" t="n">
         <v>0.333</v>
       </c>
-      <c r="N31" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P31" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="Q31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="R31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="S31" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T31" s="0" t="n">
         <v>0</v>
       </c>
@@ -2770,33 +2953,41 @@
         <v>0</v>
       </c>
       <c r="V31" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="W31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y31" s="0" t="n">
+        <f aca="false">X31-W31</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="D32" s="0" t="str">
+        <f aca="false">MID(C32,1,4)</f>
+        <v> DOD</v>
+      </c>
+      <c r="E32" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E32" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="F32" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0</v>
@@ -2808,28 +2999,22 @@
         <v>0</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" s="0" t="n">
         <v>0.214</v>
       </c>
-      <c r="M32" s="0" t="n">
-        <v>0.214</v>
-      </c>
-      <c r="N32" s="0" t="n">
-        <v>0.389</v>
-      </c>
-      <c r="P32" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="Q32" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R32" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S32" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T32" s="0" t="n">
         <v>0</v>
@@ -2838,33 +3023,41 @@
         <v>0</v>
       </c>
       <c r="V32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="W32" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="0" t="n">
+        <f aca="false">X32-W32</f>
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="D33" s="0" t="str">
+        <f aca="false">MID(C33,1,4)</f>
+        <v> ATL</v>
+      </c>
+      <c r="E33" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E33" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="F33" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>0</v>
@@ -2873,102 +3066,98 @@
         <v>0</v>
       </c>
       <c r="J33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="T33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X33" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L33" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M33" s="0" t="n">
-        <v>0.267</v>
-      </c>
-      <c r="N33" s="0" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="P33" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R33" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="W33" s="0" t="n">
-        <v>0</v>
+      <c r="Y33" s="0" t="n">
+        <f aca="false">X33-W33</f>
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>10</v>
+        <v>114</v>
+      </c>
+      <c r="D34" s="0" t="str">
+        <f aca="false">MID(C34,1,4)</f>
+        <v> TAM</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M34" s="0" t="n">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="P34" s="0" t="n">
-        <v>4</v>
+        <v>0.333</v>
       </c>
       <c r="Q34" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R34" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S34" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="0" t="n">
         <v>0</v>
@@ -2978,29 +3167,37 @@
       </c>
       <c r="W34" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="X34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="0" t="n">
+        <f aca="false">X34-W34</f>
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="D35" s="0" t="str">
+        <f aca="false">MID(C35,1,4)</f>
+        <v> ATL</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>0</v>
@@ -3009,31 +3206,25 @@
         <v>0</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="M35" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N35" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="P35" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="Q35" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T35" s="0" t="n">
         <v>0</v>
@@ -3042,33 +3233,41 @@
         <v>0</v>
       </c>
       <c r="V35" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="0" t="n">
+        <f aca="false">X35-W35</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="D36" s="0" t="str">
+        <f aca="false">MID(C36,1,4)</f>
+        <v> DOD</v>
+      </c>
+      <c r="E36" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E36" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="F36" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>0</v>
@@ -3083,26 +3282,20 @@
         <v>2</v>
       </c>
       <c r="L36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" s="0" t="n">
         <v>0.182</v>
       </c>
-      <c r="M36" s="0" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="N36" s="0" t="n">
-        <v>0.438</v>
-      </c>
-      <c r="P36" s="0" t="n">
+      <c r="Q36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Q36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="S36" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T36" s="0" t="n">
         <v>0</v>
       </c>
@@ -3113,63 +3306,65 @@
         <v>0</v>
       </c>
       <c r="W36" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="0" t="n">
+        <f aca="false">X36-W36</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>12</v>
+        <v>122</v>
+      </c>
+      <c r="D37" s="0" t="str">
+        <f aca="false">MID(C37,1,4)</f>
+        <v> ATL</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="M37" s="0" t="n">
-        <v>0.167</v>
+        <v>4</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="P37" s="0" t="n">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="Q37" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R37" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S37" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T37" s="0" t="n">
         <v>0</v>
@@ -3178,33 +3373,41 @@
         <v>0</v>
       </c>
       <c r="V37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y37" s="0" t="n">
+        <f aca="false">X37-W37</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>6</v>
+        <v>67</v>
+      </c>
+      <c r="D38" s="0" t="str">
+        <f aca="false">MID(C38,1,4)</f>
+        <v> TAM</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>0</v>
@@ -3216,28 +3419,22 @@
         <v>0</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="M38" s="0" t="n">
-        <v>0.167</v>
+        <v>2</v>
       </c>
       <c r="N38" s="0" t="n">
         <v>0.167</v>
       </c>
-      <c r="P38" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Q38" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R38" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S38" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T38" s="0" t="n">
         <v>0</v>
@@ -3250,26 +3447,34 @@
       </c>
       <c r="W38" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="X38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="0" t="n">
+        <f aca="false">X38-W38</f>
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>19</v>
+        <v>127</v>
+      </c>
+      <c r="D39" s="0" t="str">
+        <f aca="false">MID(C39,1,4)</f>
+        <v> ORI</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>1</v>
@@ -3281,31 +3486,25 @@
         <v>0</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>0.158</v>
-      </c>
-      <c r="M39" s="0" t="n">
-        <v>0.211</v>
+        <v>1</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>0.238</v>
-      </c>
-      <c r="P39" s="0" t="n">
-        <v>2</v>
+        <v>0.167</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R39" s="0" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S39" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T39" s="0" t="n">
         <v>0</v>
@@ -3316,64 +3515,66 @@
       <c r="V39" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W39" s="0" t="n">
+      <c r="W39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="0" t="n">
+        <f aca="false">X39-W39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>13</v>
+        <v>130</v>
+      </c>
+      <c r="D40" s="0" t="str">
+        <f aca="false">MID(C40,1,4)</f>
+        <v> ATL</v>
       </c>
       <c r="E40" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F40" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K40" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="L40" s="0" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="M40" s="0" t="n">
-        <v>0.308</v>
-      </c>
       <c r="N40" s="0" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="P40" s="0" t="n">
-        <v>6</v>
+        <v>0.19</v>
       </c>
       <c r="Q40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R40" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S40" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="T40" s="0" t="n">
         <v>0</v>
@@ -3385,30 +3586,38 @@
         <v>0</v>
       </c>
       <c r="W40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="0" t="n">
+        <f aca="false">X40-W40</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="D41" s="0" t="str">
+        <f aca="false">MID(C41,1,4)</f>
+        <v> ORI</v>
+      </c>
+      <c r="E41" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E41" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>0</v>
@@ -3417,31 +3626,25 @@
         <v>0</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" s="0" t="n">
         <v>0.143</v>
       </c>
-      <c r="M41" s="0" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="N41" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="P41" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="Q41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R41" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S41" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T41" s="0" t="n">
         <v>0</v>
@@ -3453,66 +3656,68 @@
         <v>0</v>
       </c>
       <c r="W41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="0" t="n">
+        <f aca="false">X41-W41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="D42" s="0" t="str">
+        <f aca="false">MID(C42,1,4)</f>
+        <v> TAM</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>0.133</v>
-      </c>
-      <c r="M42" s="0" t="n">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="N42" s="0" t="n">
-        <v>0.235</v>
-      </c>
-      <c r="P42" s="0" t="n">
-        <v>1</v>
+        <v>0.176</v>
       </c>
       <c r="Q42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="R42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="S42" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T42" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" s="0" t="n">
         <v>0</v>
@@ -3521,30 +3726,38 @@
         <v>0</v>
       </c>
       <c r="W42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="0" t="n">
+        <f aca="false">X42-W42</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>16</v>
+        <v>138</v>
+      </c>
+      <c r="D43" s="0" t="str">
+        <f aca="false">MID(C43,1,4)</f>
+        <v> DOD</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>0</v>
@@ -3553,31 +3766,25 @@
         <v>0</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="M43" s="0" t="n">
-        <v>0.125</v>
+        <v>2</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>0.176</v>
-      </c>
-      <c r="P43" s="0" t="n">
-        <v>1</v>
+        <v>0.118</v>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R43" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S43" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T43" s="0" t="n">
         <v>0</v>
@@ -3586,66 +3793,68 @@
         <v>0</v>
       </c>
       <c r="V43" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="W43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y43" s="0" t="n">
+        <f aca="false">X43-W43</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>16</v>
+        <v>75</v>
+      </c>
+      <c r="D44" s="0" t="str">
+        <f aca="false">MID(C44,1,4)</f>
+        <v> TAM</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="M44" s="0" t="n">
-        <v>0.188</v>
+        <v>3</v>
       </c>
       <c r="N44" s="0" t="n">
-        <v>0.176</v>
-      </c>
-      <c r="P44" s="0" t="n">
-        <v>1</v>
+        <v>0.167</v>
       </c>
       <c r="Q44" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S44" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T44" s="0" t="n">
         <v>0</v>
@@ -3654,33 +3863,41 @@
         <v>0</v>
       </c>
       <c r="V44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="0" t="n">
+        <f aca="false">X44-W44</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>9</v>
+        <v>122</v>
+      </c>
+      <c r="D45" s="0" t="str">
+        <f aca="false">MID(C45,1,4)</f>
+        <v> ATL</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>0</v>
@@ -3689,31 +3906,25 @@
         <v>0</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="M45" s="0" t="n">
-        <v>0.111</v>
+        <v>1</v>
       </c>
       <c r="N45" s="0" t="n">
-        <v>0.273</v>
-      </c>
-      <c r="P45" s="0" t="n">
-        <v>2</v>
+        <v>0.091</v>
       </c>
       <c r="Q45" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S45" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T45" s="0" t="n">
         <v>0</v>
@@ -3725,30 +3936,38 @@
         <v>0</v>
       </c>
       <c r="W45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="0" t="n">
+        <f aca="false">X45-W45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="D46" s="0" t="str">
+        <f aca="false">MID(C46,1,4)</f>
+        <v> ORI</v>
+      </c>
+      <c r="E46" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E46" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="F46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>0</v>
@@ -3763,25 +3982,19 @@
         <v>1</v>
       </c>
       <c r="L46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" s="0" t="n">
         <v>0.091</v>
       </c>
-      <c r="M46" s="0" t="n">
-        <v>0.091</v>
-      </c>
-      <c r="N46" s="0" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="P46" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="Q46" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R46" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S46" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T46" s="0" t="n">
         <v>0</v>
@@ -3793,24 +4006,32 @@
         <v>0</v>
       </c>
       <c r="W46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="0" t="n">
+        <f aca="false">X46-W46</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>13</v>
+        <v>60</v>
+      </c>
+      <c r="D47" s="0" t="str">
+        <f aca="false">MID(C47,1,4)</f>
+        <v> ATL</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>1</v>
@@ -3825,131 +4046,135 @@
         <v>0</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="M47" s="0" t="n">
-        <v>0.154</v>
+        <v>1</v>
       </c>
       <c r="N47" s="0" t="n">
-        <v>0.188</v>
-      </c>
-      <c r="P47" s="0" t="n">
-        <v>2</v>
+        <v>0.071</v>
       </c>
       <c r="Q47" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S47" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T47" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="V47" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="0" t="n">
+        <f aca="false">X47-W47</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>13</v>
+        <v>67</v>
+      </c>
+      <c r="D48" s="0" t="str">
+        <f aca="false">MID(C48,1,4)</f>
+        <v> TAM</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="M48" s="0" t="n">
-        <v>0.077</v>
+        <v>2</v>
       </c>
       <c r="N48" s="0" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="P48" s="0" t="n">
-        <v>1</v>
+        <v>0.133</v>
       </c>
       <c r="Q48" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R48" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S48" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T48" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W48" s="0" t="n">
+      <c r="W48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="0" t="n">
+        <f aca="false">X48-W48</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>12</v>
+        <v>49</v>
+      </c>
+      <c r="D49" s="0" t="str">
+        <f aca="false">MID(C49,1,4)</f>
+        <v> ORI</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>0</v>
@@ -3969,23 +4194,17 @@
       <c r="L49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M49" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N49" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="P49" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R49" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S49" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T49" s="0" t="n">
         <v>0</v>
@@ -3994,27 +4213,35 @@
         <v>0</v>
       </c>
       <c r="V49" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="W49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y49" s="0" t="n">
+        <f aca="false">X49-W49</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>10</v>
+        <v>153</v>
+      </c>
+      <c r="D50" s="0" t="str">
+        <f aca="false">MID(C50,1,4)</f>
+        <v> ORI</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>0</v>
@@ -4037,23 +4264,17 @@
       <c r="L50" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M50" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N50" s="0" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="P50" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R50" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S50" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T50" s="0" t="n">
         <v>0</v>
@@ -4065,27 +4286,35 @@
         <v>0</v>
       </c>
       <c r="W50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="0" t="n">
+        <f aca="false">X50-W50</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="D51" s="0" t="str">
+        <f aca="false">MID(C51,1,4)</f>
+        <v> ORI</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G51" s="0" t="n">
         <v>0</v>
@@ -4097,31 +4326,25 @@
         <v>0</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M51" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N51" s="0" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="P51" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R51" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S51" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T51" s="0" t="n">
         <v>0</v>
@@ -4133,27 +4356,35 @@
         <v>0</v>
       </c>
       <c r="W51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="0" t="n">
+        <f aca="false">X51-W51</f>
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="D52" s="0" t="str">
+        <f aca="false">MID(C52,1,4)</f>
+        <v> DOD</v>
+      </c>
+      <c r="E52" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E52" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="F52" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G52" s="0" t="n">
         <v>0</v>
@@ -4173,24 +4404,18 @@
       <c r="L52" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M52" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N52" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P52" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="R52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="S52" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T52" s="0" t="n">
         <v>0</v>
       </c>
@@ -4198,27 +4423,35 @@
         <v>0</v>
       </c>
       <c r="V52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="0" t="n">
+        <f aca="false">X52-W52</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="0" t="n">
-        <v>8</v>
+      <c r="D53" s="0" t="str">
+        <f aca="false">MID(C53,1,4)</f>
+        <v> ATL</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>0</v>
@@ -4241,23 +4474,17 @@
       <c r="L53" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M53" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N53" s="0" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="P53" s="0" t="n">
         <v>0</v>
       </c>
       <c r="Q53" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S53" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T53" s="0" t="n">
         <v>0</v>
@@ -4266,30 +4493,38 @@
         <v>0</v>
       </c>
       <c r="V53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="0" t="n">
+        <f aca="false">X53-W53</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>7</v>
+        <v>162</v>
+      </c>
+      <c r="D54" s="0" t="str">
+        <f aca="false">MID(C54,1,4)</f>
+        <v> ORI</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>0</v>
@@ -4309,26 +4544,20 @@
       <c r="L54" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M54" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N54" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P54" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R54" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S54" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T54" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" s="0" t="n">
         <v>0</v>
@@ -4337,27 +4566,35 @@
         <v>0</v>
       </c>
       <c r="W54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="0" t="n">
+        <f aca="false">X54-W54</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55" s="0" t="str">
+        <f aca="false">MID(C55,1,4)</f>
+        <v> TAM</v>
+      </c>
+      <c r="E55" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E55" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="F55" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="0" t="n">
         <v>0</v>
@@ -4369,34 +4606,28 @@
         <v>0</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M55" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N55" s="0" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="P55" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="S55" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="T55" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55" s="0" t="n">
         <v>0</v>
@@ -4405,64 +4636,66 @@
         <v>0</v>
       </c>
       <c r="W55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="0" t="n">
+        <f aca="false">X55-W55</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D56" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="D56" s="0" t="str">
+        <f aca="false">MID(C56,1,4)</f>
+        <v> DOD</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E56" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="0" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="P56" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="S56" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T56" s="0" t="n">
         <v>0</v>
       </c>
@@ -4473,27 +4706,35 @@
         <v>0</v>
       </c>
       <c r="W56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="0" t="n">
+        <f aca="false">X56-W56</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>5</v>
+        <v>117</v>
+      </c>
+      <c r="D57" s="0" t="str">
+        <f aca="false">MID(C57,1,4)</f>
+        <v> ATL</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="0" t="n">
         <v>0</v>
@@ -4513,23 +4754,17 @@
       <c r="L57" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M57" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N57" s="0" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="P57" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R57" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S57" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T57" s="0" t="n">
         <v>0</v>
@@ -4541,25 +4776,33 @@
         <v>0</v>
       </c>
       <c r="W57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="0" t="n">
+        <f aca="false">X57-W57</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="D58" s="0" t="str">
+        <f aca="false">MID(C58,1,4)</f>
+        <v> ATL</v>
+      </c>
+      <c r="E58" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E58" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="F58" s="0" t="n">
         <v>0</v>
       </c>
@@ -4581,23 +4824,17 @@
       <c r="L58" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M58" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N58" s="0" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="P58" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S58" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T58" s="0" t="n">
         <v>0</v>
@@ -4609,64 +4846,66 @@
         <v>0</v>
       </c>
       <c r="W58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="0" t="n">
+        <f aca="false">X58-W58</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="D59" s="0" t="str">
+        <f aca="false">MID(C59,1,4)</f>
+        <v> DOD</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E59" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P59" s="0" t="n">
+      <c r="R59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S59" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="T59" s="0" t="n">
         <v>0</v>
       </c>
@@ -4674,30 +4913,38 @@
         <v>0</v>
       </c>
       <c r="V59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="0" t="n">
+        <f aca="false">X59-W59</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>3</v>
+        <v>177</v>
+      </c>
+      <c r="D60" s="0" t="str">
+        <f aca="false">MID(C60,1,4)</f>
+        <v> DOD</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" s="0" t="n">
         <v>0</v>
@@ -4717,23 +4964,17 @@
       <c r="L60" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M60" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N60" s="0" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="P60" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R60" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S60" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T60" s="0" t="n">
         <v>0</v>
@@ -4742,30 +4983,38 @@
         <v>0</v>
       </c>
       <c r="V60" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="0" t="n">
+        <f aca="false">X60-W60</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D61" s="0" t="n">
-        <v>2</v>
+        <v>179</v>
+      </c>
+      <c r="D61" s="0" t="str">
+        <f aca="false">MID(C61,1,4)</f>
+        <v> ATL</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G61" s="0" t="n">
         <v>0</v>
@@ -4785,23 +5034,17 @@
       <c r="L61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M61" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N61" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P61" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R61" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S61" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T61" s="0" t="n">
         <v>0</v>
@@ -4812,25 +5055,33 @@
       <c r="V61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W61" s="0" t="n">
+      <c r="W61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="0" t="n">
+        <f aca="false">X61-W61</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="0" t="n">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="D62" s="0" t="str">
+        <f aca="false">MID(C62,1,4)</f>
+        <v> ATL</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>0</v>
@@ -4853,15 +5104,9 @@
       <c r="L62" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M62" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N62" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="P62" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Q62" s="0" t="n">
         <v>0</v>
       </c>
@@ -4881,6 +5126,13 @@
         <v>0</v>
       </c>
       <c r="W62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="0" t="n">
+        <f aca="false">X62-W62</f>
         <v>0</v>
       </c>
     </row>

--- a/data/csv/stats_batting_raw_tsl_2024_tmp.xlsx
+++ b/data/csv/stats_batting_raw_tsl_2024_tmp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="183">
   <si>
     <t xml:space="preserve">Player</t>
   </si>
@@ -52,13 +52,13 @@
     <t xml:space="preserve">TB</t>
   </si>
   <si>
-    <t xml:space="preserve">AVG</t>
+    <t xml:space="preserve"> AVG</t>
   </si>
   <si>
     <t xml:space="preserve"> SLG%</t>
   </si>
   <si>
-    <t xml:space="preserve">OB%</t>
+    <t xml:space="preserve"> OB%</t>
   </si>
   <si>
     <t xml:space="preserve">OPS</t>
@@ -91,28 +91,37 @@
     <t xml:space="preserve">CS</t>
   </si>
   <si>
+    <t xml:space="preserve">COLOMBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
     <t xml:space="preserve">MENDOZA</t>
   </si>
   <si>
     <t xml:space="preserve">RICARDO</t>
   </si>
   <si>
-    <t xml:space="preserve"> ATLANTA...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLOMBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORIOLES..</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4</t>
+    <t xml:space="preserve">ATLANTA...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARAYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA...........</t>
   </si>
   <si>
     <t xml:space="preserve">GONZALEZ</t>
@@ -121,10 +130,10 @@
     <t xml:space="preserve">DAYAN</t>
   </si>
   <si>
-    <t xml:space="preserve"> DODGERS....</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2</t>
+    <t xml:space="preserve">DODGERS....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">AZCUY</t>
@@ -133,10 +142,10 @@
     <t xml:space="preserve">JOSHUA</t>
   </si>
   <si>
-    <t xml:space="preserve"> TAMPA........</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6</t>
+    <t xml:space="preserve">TAMPA........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">CRUZ</t>
@@ -145,10 +154,103 @@
     <t xml:space="preserve">RAFAEL</t>
   </si>
   <si>
-    <t xml:space="preserve"> DODGERS.......</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7</t>
+    <t xml:space="preserve">DODGERS.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAMBERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAINER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIEMEYER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADRIGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTILLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSELMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUINTANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARDINALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
   </si>
   <si>
     <t xml:space="preserve">MOLENMAN</t>
@@ -157,106 +259,82 @@
     <t xml:space="preserve">SEM OUDE</t>
   </si>
   <si>
-    <t xml:space="preserve"> TAMPA...</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOVAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORIOLES.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODRIGUEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAINER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ATLANTA..</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5</t>
+    <t xml:space="preserve">TAMPA...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASCANIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARANJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES..........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROJAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA..........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRASCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREIONIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.</t>
   </si>
   <si>
     <t xml:space="preserve">KEVIN</t>
   </si>
   <si>
-    <t xml:space="preserve"> TAMPA.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANSELMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MADRIGAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ATLANTA.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIEMEYER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUINTANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASTILLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TAMPA..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARAYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ATLANTA...........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NARANJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORIOLES...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASCANIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TAMPA......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARDINALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DODGER</t>
+    <t xml:space="preserve">TAMPA.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LOOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUARIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPECK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JURI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALONSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.....</t>
   </si>
   <si>
     <t xml:space="preserve">GARCIA</t>
@@ -265,13 +343,19 @@
     <t xml:space="preserve">LUISFER</t>
   </si>
   <si>
-    <t xml:space="preserve">DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUARIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ATLAN</t>
+    <t xml:space="preserve">LAMONJCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARGAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA......</t>
   </si>
   <si>
     <t xml:space="preserve">MONTIEL</t>
@@ -280,106 +364,34 @@
     <t xml:space="preserve">DANIEL</t>
   </si>
   <si>
-    <t xml:space="preserve"> ORIOLES....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALONSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DODGERS.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROJAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANGEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAMBERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TAMPA.......</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORIOLES..........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPECK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JURI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DODGERS........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRASCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREIONIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DODGERS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMONJCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRKO</t>
-  </si>
-  <si>
     <t xml:space="preserve">DAVIDE</t>
   </si>
   <si>
     <t xml:space="preserve">GANASSI</t>
   </si>
   <si>
+    <t xml:space="preserve">VRANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMAN</t>
+  </si>
+  <si>
     <t xml:space="preserve">BALICE</t>
   </si>
   <si>
     <t xml:space="preserve">ALEX</t>
   </si>
   <si>
-    <t xml:space="preserve"> ATLANTA.......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TAMPA..........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARGAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIEGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ATLANTA......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VRANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROMAN</t>
+    <t xml:space="preserve">ATLANTA.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOAN KELLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA.</t>
   </si>
   <si>
     <t xml:space="preserve">BENCOMO</t>
@@ -388,7 +400,19 @@
     <t xml:space="preserve">JOSE ANGEL</t>
   </si>
   <si>
-    <t xml:space="preserve"> ATLANTA</t>
+    <t xml:space="preserve">ATLANTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WALO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEBASTIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVIAN ROMERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JORGE</t>
   </si>
   <si>
     <t xml:space="preserve">MERKELBACK</t>
@@ -397,31 +421,31 @@
     <t xml:space="preserve">BENNETT</t>
   </si>
   <si>
+    <t xml:space="preserve">OTAL TORO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEXANDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLE</t>
+  </si>
+  <si>
     <t xml:space="preserve">SWAAK</t>
   </si>
   <si>
     <t xml:space="preserve">BLUE</t>
   </si>
   <si>
-    <t xml:space="preserve"> ORIOLES........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOAN KELLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ATLANTA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTAL TORO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEXANDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORIOLE</t>
+    <t xml:space="preserve">ORIOLES........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIGUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS......</t>
   </si>
   <si>
     <t xml:space="preserve">INFANTE</t>
@@ -430,25 +454,10 @@
     <t xml:space="preserve">RAIMOND</t>
   </si>
   <si>
-    <t xml:space="preserve">PEREZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIGUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DODGERS......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WALO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEBASTIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVIAN ROMERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JORGE</t>
+    <t xml:space="preserve">COLLAZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JESUS</t>
   </si>
   <si>
     <t xml:space="preserve">KOCH</t>
@@ -457,7 +466,13 @@
     <t xml:space="preserve">TOBIAS</t>
   </si>
   <si>
-    <t xml:space="preserve"> ORIOLES.......</t>
+    <t xml:space="preserve">ORIOLES.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GORTEMULDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEPIJN</t>
   </si>
   <si>
     <t xml:space="preserve">PERUZZO</t>
@@ -466,12 +481,6 @@
     <t xml:space="preserve">MATIS</t>
   </si>
   <si>
-    <t xml:space="preserve">GORTEMULDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEPIJN</t>
-  </si>
-  <si>
     <t xml:space="preserve">ROCCO</t>
   </si>
   <si>
@@ -481,7 +490,7 @@
     <t xml:space="preserve">REGAL</t>
   </si>
   <si>
-    <t xml:space="preserve"> ORIOLES......</t>
+    <t xml:space="preserve">ORIOLES......</t>
   </si>
   <si>
     <t xml:space="preserve">ZIRONI</t>
@@ -490,25 +499,31 @@
     <t xml:space="preserve">MAICOL</t>
   </si>
   <si>
+    <t xml:space="preserve">ALBERTINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES.</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALDIVIA</t>
   </si>
   <si>
     <t xml:space="preserve">MARCEL</t>
   </si>
   <si>
-    <t xml:space="preserve"> DODGERS...</t>
+    <t xml:space="preserve">DODGERS...</t>
   </si>
   <si>
     <t xml:space="preserve">ROLDAN</t>
   </si>
   <si>
-    <t xml:space="preserve">ALBERTINI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ORIOLES.</t>
+    <t xml:space="preserve">ANTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILDER</t>
   </si>
   <si>
     <t xml:space="preserve">CHINEA</t>
@@ -517,16 +532,13 @@
     <t xml:space="preserve">PABLO</t>
   </si>
   <si>
-    <t xml:space="preserve">COLLAZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JESUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WILDER</t>
+    <t xml:space="preserve">BONGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.........</t>
   </si>
   <si>
     <t xml:space="preserve">BORLONI</t>
@@ -535,16 +547,7 @@
     <t xml:space="preserve">MATTEO</t>
   </si>
   <si>
-    <t xml:space="preserve"> ATLANTA....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BONGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DODGERS.........</t>
+    <t xml:space="preserve">ATLANTA....</t>
   </si>
   <si>
     <t xml:space="preserve">ZAMBRANO</t>
@@ -553,16 +556,19 @@
     <t xml:space="preserve">ABRAHAM</t>
   </si>
   <si>
-    <t xml:space="preserve"> DODGERS..</t>
+    <t xml:space="preserve">DODGERS..</t>
   </si>
   <si>
     <t xml:space="preserve">JUAN</t>
   </si>
   <si>
-    <t xml:space="preserve"> ATLANTA........</t>
+    <t xml:space="preserve">ATLANTA........</t>
   </si>
   <si>
     <t xml:space="preserve">SERRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIS</t>
   </si>
 </sst>
 </file>
@@ -769,27 +775,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y4" activeCellId="0" sqref="Y4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="3.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="5.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="5.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="5.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="3.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="4.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="8.11"/>
@@ -877,44 +886,54 @@
         <v>25</v>
       </c>
       <c r="D2" s="0" t="str">
-        <f aca="false">MID(C2,1,4)</f>
-        <v> ATL</v>
+        <f aca="false">MID(C2,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>0.625</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>1.588</v>
+        <v>1.083</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <f aca="false">N2+O2</f>
+        <v>1.802</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>0</v>
@@ -929,11 +948,11 @@
         <v>26</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y2" s="0" t="n">
         <f aca="false">X2-W2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -947,38 +966,48 @@
         <v>29</v>
       </c>
       <c r="D3" s="0" t="str">
-        <f aca="false">MID(C3,1,4)</f>
-        <v> ORI</v>
+        <f aca="false">MID(C3,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.556</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>1</v>
+        <v>1.5</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <f aca="false">N3+O3</f>
+        <v>2.204</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>0</v>
@@ -999,11 +1028,11 @@
         <v>30</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y3" s="0" t="n">
         <f aca="false">X3-W3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1017,35 +1046,45 @@
         <v>33</v>
       </c>
       <c r="D4" s="0" t="str">
-        <f aca="false">MID(C4,1,4)</f>
-        <v> DOD</v>
+        <f aca="false">MID(C4,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="L4" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.727</v>
+        <v>0.75</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <f aca="false">N4+O4</f>
+        <v>1.194</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>0</v>
@@ -1054,74 +1093,84 @@
         <v>0</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>34</v>
+      <c r="W4" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="0" t="n">
         <f aca="false">X4-W4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" s="0" t="str">
-        <f aca="false">MID(C5,1,4)</f>
-        <v> TAM</v>
+        <f aca="false">MID(C5,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>0.455</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>1.15</v>
+        <v>0.727</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <f aca="false">N5+O5</f>
+        <v>1.182</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="0" t="n">
         <v>3</v>
@@ -1136,10 +1185,10 @@
         <v>0</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Y5" s="0" t="n">
         <f aca="false">X5-W5</f>
@@ -1148,53 +1197,63 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="D6" s="0" t="str">
-        <f aca="false">MID(C6,1,4)</f>
-        <v> DOD</v>
+        <f aca="false">MID(C6,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>20</v>
       </c>
       <c r="F6" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0.45</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>0.5</v>
+        <v>1.15</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <f aca="false">N6+O6</f>
+        <v>1.743</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T6" s="0" t="n">
         <v>0</v>
@@ -1203,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y6" s="0" t="n">
         <f aca="false">X6-W6</f>
@@ -1218,68 +1277,78 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="str">
+        <f aca="false">MID(C7,1,3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <f aca="false">N7+O7</f>
+        <v>1.185</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="0" t="str">
-        <f aca="false">MID(C7,1,4)</f>
-        <v> TAM</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="0" t="n">
+      <c r="X7" s="0" t="n">
         <v>8</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="T7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X7" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="Y7" s="0" t="n">
         <f aca="false">X7-W7</f>
@@ -1288,47 +1357,57 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="D8" s="0" t="str">
-        <f aca="false">MID(C8,1,4)</f>
-        <v> ORI</v>
+        <f aca="false">MID(C8,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <f aca="false">N8+O8</f>
+        <v>1.024</v>
+      </c>
+      <c r="Q8" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>0.538</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>4</v>
       </c>
       <c r="R8" s="0" t="n">
         <v>0</v>
@@ -1346,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="X8" s="0" t="n">
         <v>2</v>
@@ -1358,29 +1437,29 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="D9" s="0" t="str">
-        <f aca="false">MID(C9,1,4)</f>
-        <v> ATL</v>
+        <f aca="false">MID(C9,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>0</v>
@@ -1392,19 +1471,29 @@
         <v>1</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>0.357</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.538</v>
+        <v>0.357</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <f aca="false">N9+O9</f>
+        <v>0.714</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T9" s="0" t="n">
         <v>0</v>
@@ -1415,81 +1504,91 @@
       <c r="V9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W9" s="1" t="s">
-        <v>53</v>
+      <c r="W9" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="0" t="n">
         <f aca="false">X9-W9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="str">
+        <f aca="false">MID(C10,1,3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <f aca="false">N10+O10</f>
+        <v>1.071</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="0" t="str">
-        <f aca="false">MID(C10,1,4)</f>
-        <v> TAM</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="S10" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="T10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Y10" s="0" t="n">
         <f aca="false">X10-W10</f>
@@ -1504,47 +1603,57 @@
         <v>57</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D11" s="0" t="str">
-        <f aca="false">MID(C11,1,4)</f>
-        <v> DOD</v>
+        <f aca="false">MID(C11,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <f aca="false">N11+O11</f>
+        <v>1.04</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>4</v>
       </c>
       <c r="T11" s="0" t="n">
         <v>0</v>
@@ -1559,7 +1668,7 @@
         <v>30</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y11" s="0" t="n">
         <f aca="false">X11-W11</f>
@@ -1577,14 +1686,14 @@
         <v>60</v>
       </c>
       <c r="D12" s="0" t="str">
-        <f aca="false">MID(C12,1,4)</f>
-        <v> ATL</v>
+        <f aca="false">MID(C12,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>9</v>
@@ -1604,11 +1713,21 @@
       <c r="L12" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="M12" s="0" t="n">
+        <v>0.346</v>
+      </c>
       <c r="N12" s="0" t="n">
-        <v>0.44</v>
+        <v>0.423</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <f aca="false">N12+O12</f>
+        <v>0.937</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R12" s="0" t="n">
         <v>0</v>
@@ -1626,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y12" s="0" t="n">
         <f aca="false">X12-W12</f>
@@ -1644,41 +1763,51 @@
         <v>62</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D13" s="0" t="str">
-        <f aca="false">MID(C13,1,4)</f>
-        <v> ORI</v>
+        <f aca="false">MID(C13,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <f aca="false">N13+O13</f>
+        <v>0.925</v>
+      </c>
+      <c r="Q13" s="0" t="n">
         <v>6</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>0.586</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>4</v>
       </c>
       <c r="R13" s="0" t="n">
         <v>0</v>
@@ -1696,62 +1825,72 @@
         <v>0</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y13" s="0" t="n">
         <f aca="false">X13-W13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D14" s="0" t="str">
-        <f aca="false">MID(C14,1,4)</f>
-        <v> ATL</v>
+        <f aca="false">MID(C14,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>24</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>8</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L14" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L14" s="0" t="n">
-        <v>13</v>
+      <c r="M14" s="0" t="n">
+        <v>0.333</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.542</v>
+        <v>0.333</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <f aca="false">N14+O14</f>
+        <v>0.889</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S14" s="0" t="n">
         <v>4</v>
@@ -1766,59 +1905,69 @@
         <v>0</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="X14" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y14" s="0" t="n">
         <f aca="false">X14-W14</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D15" s="0" t="str">
-        <f aca="false">MID(C15,1,4)</f>
-        <v> TAM</v>
+        <f aca="false">MID(C15,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>0.32</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.476</v>
+        <v>0.52</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <f aca="false">N15+O15</f>
+        <v>1.005</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R15" s="0" t="n">
         <v>0</v>
@@ -1836,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="X15" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y15" s="0" t="n">
         <f aca="false">X15-W15</f>
@@ -1848,56 +1997,66 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="0" t="str">
-        <f aca="false">MID(C16,1,4)</f>
-        <v> ATL</v>
+        <f aca="false">MID(C16,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <f aca="false">N16+O16</f>
+        <v>0.785</v>
+      </c>
+      <c r="Q16" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L16" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="R16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U16" s="0" t="n">
         <v>0</v>
@@ -1905,69 +2064,79 @@
       <c r="V16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W16" s="0" t="n">
-        <v>0</v>
+      <c r="W16" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="X16" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y16" s="0" t="n">
         <f aca="false">X16-W16</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D17" s="0" t="str">
-        <f aca="false">MID(C17,1,4)</f>
-        <v> ORI</v>
+        <f aca="false">MID(C17,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G17" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <f aca="false">N17+O17</f>
+        <v>0.927</v>
+      </c>
+      <c r="Q17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="R17" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="0" t="n">
         <v>5</v>
       </c>
       <c r="T17" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="0" t="n">
         <v>0</v>
@@ -1975,11 +2144,11 @@
       <c r="V17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W17" s="0" t="n">
-        <v>0</v>
+      <c r="W17" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="X17" s="0" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Y17" s="0" t="n">
         <f aca="false">X17-W17</f>
@@ -1988,53 +2157,63 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D18" s="0" t="str">
-        <f aca="false">MID(C18,1,4)</f>
-        <v> TAM</v>
+        <f aca="false">MID(C18,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <f aca="false">N18+O18</f>
+        <v>1.086</v>
+      </c>
+      <c r="Q18" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L18" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>0.458</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="R18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T18" s="0" t="n">
         <v>0</v>
@@ -2046,41 +2225,41 @@
         <v>0</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="X18" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y18" s="0" t="n">
         <f aca="false">X18-W18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D19" s="0" t="str">
-        <f aca="false">MID(C19,1,4)</f>
-        <v> DOD</v>
+        <f aca="false">MID(C19,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>9</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>1</v>
@@ -2089,25 +2268,35 @@
         <v>0</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>0.292</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.387</v>
+        <v>0.458</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <f aca="false">N19+O19</f>
+        <v>0.927</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="S19" s="0" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="T19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="0" t="n">
         <v>0</v>
@@ -2116,126 +2305,146 @@
         <v>0</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="X19" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Y19" s="0" t="n">
         <f aca="false">X19-W19</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D20" s="0" t="str">
-        <f aca="false">MID(C20,1,4)</f>
-        <v> TAM</v>
+        <f aca="false">MID(C20,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <f aca="false">N20+O20</f>
+        <v>0.679</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X20" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="Q20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" s="0" t="n">
         <f aca="false">X20-W20</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D21" s="0" t="str">
-        <f aca="false">MID(C21,1,4)</f>
-        <v> ATL</v>
+        <f aca="false">MID(C21,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>0.29</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>0.5</v>
+        <v>0.323</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <f aca="false">N21+O21</f>
+        <v>0.694</v>
       </c>
       <c r="Q21" s="0" t="n">
         <v>4</v>
@@ -2244,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T21" s="0" t="n">
         <v>0</v>
@@ -2256,41 +2465,41 @@
         <v>0</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="X21" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="0" t="n">
         <f aca="false">X21-W21</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="D22" s="0" t="str">
-        <f aca="false">MID(C22,1,4)</f>
-        <v> ORI</v>
+        <f aca="false">MID(C22,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E22" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G22" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="H22" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>0</v>
@@ -2299,22 +2508,32 @@
         <v>0</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>0.28</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>0.429</v>
+        <v>0.36</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <f aca="false">N22+O22</f>
+        <v>0.798</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R22" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S22" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T22" s="0" t="n">
         <v>0</v>
@@ -2325,69 +2544,79 @@
       <c r="V22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W22" s="0" t="n">
-        <v>0</v>
+      <c r="W22" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="X22" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y22" s="0" t="n">
         <f aca="false">X22-W22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D23" s="0" t="str">
-        <f aca="false">MID(C23,1,4)</f>
-        <v> DOD</v>
+        <f aca="false">MID(C23,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <f aca="false">N23+O23</f>
+        <v>0.869</v>
+      </c>
+      <c r="Q23" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G23" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L23" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="N23" s="0" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="Q23" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="R23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" s="0" t="n">
         <v>0</v>
@@ -2395,67 +2624,77 @@
       <c r="V23" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W23" s="1" t="s">
-        <v>30</v>
+      <c r="W23" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X23" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="0" t="n">
         <f aca="false">X23-W23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D24" s="0" t="str">
-        <f aca="false">MID(C24,1,4)</f>
-        <v> DOD</v>
+        <f aca="false">MID(C24,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G24" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="0" t="n">
-        <v>8</v>
+      <c r="M24" s="0" t="n">
+        <v>0.273</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>0.364</v>
+        <v>0.455</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <f aca="false">N24+O24</f>
+        <v>0.728</v>
       </c>
       <c r="Q24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="R24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S24" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="T24" s="0" t="n">
         <v>0</v>
       </c>
@@ -2465,36 +2704,36 @@
       <c r="V24" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W24" s="1" t="s">
-        <v>30</v>
+      <c r="W24" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X24" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="0" t="n">
         <f aca="false">X24-W24</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D25" s="0" t="str">
-        <f aca="false">MID(C25,1,4)</f>
-        <v> ORI</v>
+        <f aca="false">MID(C25,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>11</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>3</v>
@@ -2509,19 +2748,29 @@
         <v>0</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="M25" s="0" t="n">
+        <v>0.273</v>
+      </c>
       <c r="N25" s="0" t="n">
         <v>0.273</v>
       </c>
+      <c r="O25" s="0" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <f aca="false">N25+O25</f>
+        <v>0.74</v>
+      </c>
       <c r="Q25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S25" s="0" t="n">
         <v>6</v>
@@ -2539,108 +2788,118 @@
         <v>0</v>
       </c>
       <c r="X25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="0" t="n">
         <f aca="false">X25-W25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D26" s="0" t="str">
-        <f aca="false">MID(C26,1,4)</f>
-        <v> TAM</v>
+        <f aca="false">MID(C26,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E26" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <f aca="false">N26+O26</f>
+        <v>0.888</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G26" s="0" t="n">
+      <c r="X26" s="0" t="n">
         <v>7</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="N26" s="0" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="Q26" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="R26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S26" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="T26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X26" s="0" t="n">
-        <v>10</v>
       </c>
       <c r="Y26" s="0" t="n">
         <f aca="false">X26-W26</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D27" s="0" t="str">
-        <f aca="false">MID(C27,1,4)</f>
-        <v> ORI</v>
+        <f aca="false">MID(C27,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G27" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="H27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>0</v>
@@ -2652,104 +2911,124 @@
         <v>4</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>0.263</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>0.296</v>
+        <v>0.263</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <f aca="false">N27+O27</f>
+        <v>0.563</v>
       </c>
       <c r="Q27" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S27" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X27" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="T27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X27" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="Y27" s="0" t="n">
         <f aca="false">X27-W27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D28" s="0" t="str">
-        <f aca="false">MID(C28,1,4)</f>
-        <v> DOD</v>
+        <f aca="false">MID(C28,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H28" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="I28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <f aca="false">N28+O28</f>
+        <v>0.83</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X28" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L28" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="N28" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Q28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="T28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X28" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="Y28" s="0" t="n">
         <f aca="false">X28-W28</f>
@@ -2758,26 +3037,26 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D29" s="0" t="str">
-        <f aca="false">MID(C29,1,4)</f>
-        <v> DOD</v>
+        <f aca="false">MID(C29,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>1</v>
@@ -2789,28 +3068,38 @@
         <v>0</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>0.25</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>0.375</v>
+        <v>0.313</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <f aca="false">N29+O29</f>
+        <v>0.629</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S29" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" s="0" t="n">
         <v>0</v>
@@ -2828,26 +3117,26 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="D30" s="0" t="str">
-        <f aca="false">MID(C30,1,4)</f>
-        <v> ORI</v>
+        <f aca="false">MID(C30,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0</v>
@@ -2862,10 +3151,20 @@
         <v>1</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>0.25</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>0.385</v>
+        <v>0.375</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <f aca="false">N30+O30</f>
+        <v>0.625</v>
       </c>
       <c r="Q30" s="0" t="n">
         <v>0</v>
@@ -2874,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="S30" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T30" s="0" t="n">
         <v>0</v>
@@ -2898,53 +3197,63 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="D31" s="0" t="str">
-        <f aca="false">MID(C31,1,4)</f>
-        <v> DOD</v>
+        <f aca="false">MID(C31,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="H31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <f aca="false">N31+O31</f>
+        <v>0.688</v>
+      </c>
+      <c r="Q31" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H31" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L31" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="N31" s="0" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="Q31" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="R31" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T31" s="0" t="n">
         <v>0</v>
@@ -2955,11 +3264,11 @@
       <c r="V31" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W31" s="1" t="s">
-        <v>34</v>
+      <c r="W31" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X31" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="0" t="n">
         <f aca="false">X31-W31</f>
@@ -2968,29 +3277,29 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D32" s="0" t="str">
-        <f aca="false">MID(C32,1,4)</f>
-        <v> DOD</v>
+        <f aca="false">MID(C32,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>0</v>
@@ -3004,17 +3313,27 @@
       <c r="L32" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="M32" s="0" t="n">
+        <v>0.25</v>
+      </c>
       <c r="N32" s="0" t="n">
-        <v>0.214</v>
+        <v>0.375</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <f aca="false">N32+O32</f>
+        <v>0.875</v>
       </c>
       <c r="Q32" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S32" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T32" s="0" t="n">
         <v>0</v>
@@ -3025,66 +3344,76 @@
       <c r="V32" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W32" s="1" t="s">
-        <v>46</v>
+      <c r="W32" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X32" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="0" t="n">
         <f aca="false">X32-W32</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="D33" s="0" t="str">
-        <f aca="false">MID(C33,1,4)</f>
-        <v> ATL</v>
+        <f aca="false">MID(C33,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>0.222</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>0.2</v>
+        <v>0.333</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <f aca="false">N33+O33</f>
+        <v>0.633</v>
       </c>
       <c r="Q33" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R33" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S33" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T33" s="0" t="n">
         <v>0</v>
@@ -3096,35 +3425,35 @@
         <v>0</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="X33" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y33" s="0" t="n">
         <f aca="false">X33-W33</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="D34" s="0" t="str">
-        <f aca="false">MID(C34,1,4)</f>
-        <v> TAM</v>
+        <f aca="false">MID(C34,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>3</v>
@@ -3133,31 +3462,41 @@
         <v>0</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L34" s="0" t="n">
-        <v>5</v>
+      <c r="M34" s="0" t="n">
+        <v>0.214</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>0.333</v>
+        <v>0.214</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <f aca="false">N34+O34</f>
+        <v>0.428</v>
       </c>
       <c r="Q34" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R34" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="T34" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="0" t="n">
         <v>0</v>
@@ -3165,11 +3504,11 @@
       <c r="V34" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W34" s="0" t="n">
-        <v>0</v>
+      <c r="W34" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="X34" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y34" s="0" t="n">
         <f aca="false">X34-W34</f>
@@ -3178,23 +3517,23 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D35" s="0" t="str">
-        <f aca="false">MID(C35,1,4)</f>
-        <v> ATL</v>
+        <f aca="false">MID(C35,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>2</v>
@@ -3209,22 +3548,32 @@
         <v>0</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="M35" s="0" t="n">
+        <v>0.182</v>
+      </c>
       <c r="N35" s="0" t="n">
-        <v>0.2</v>
+        <v>0.182</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <f aca="false">N35+O35</f>
+        <v>0.432</v>
       </c>
       <c r="Q35" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S35" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T35" s="0" t="n">
         <v>0</v>
@@ -3254,20 +3603,20 @@
         <v>119</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="D36" s="0" t="str">
-        <f aca="false">MID(C36,1,4)</f>
-        <v> DOD</v>
+        <f aca="false">MID(C36,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>0</v>
@@ -3279,22 +3628,32 @@
         <v>0</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>0.176</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>0.182</v>
+        <v>0.176</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <f aca="false">N36+O36</f>
+        <v>0.54</v>
       </c>
       <c r="Q36" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R36" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S36" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T36" s="0" t="n">
         <v>0</v>
@@ -3305,66 +3664,76 @@
       <c r="V36" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W36" s="0" t="n">
-        <v>0</v>
+      <c r="W36" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="X36" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y36" s="0" t="n">
         <f aca="false">X36-W36</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D37" s="0" t="str">
-        <f aca="false">MID(C37,1,4)</f>
-        <v> ATL</v>
+        <f aca="false">MID(C37,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="L37" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>0.174</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>0.235</v>
+        <v>0.217</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <f aca="false">N37+O37</f>
+        <v>0.457</v>
       </c>
       <c r="Q37" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R37" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T37" s="0" t="n">
         <v>0</v>
@@ -3375,11 +3744,11 @@
       <c r="V37" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W37" s="1" t="s">
-        <v>26</v>
+      <c r="W37" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X37" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="0" t="n">
         <f aca="false">X37-W37</f>
@@ -3388,29 +3757,29 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="D38" s="0" t="str">
-        <f aca="false">MID(C38,1,4)</f>
-        <v> TAM</v>
+        <f aca="false">MID(C38,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>0</v>
@@ -3419,23 +3788,33 @@
         <v>0</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>0.167</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>0.167</v>
+        <v>0.222</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <f aca="false">N38+O38</f>
+        <v>0.622</v>
       </c>
       <c r="Q38" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="R38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="T38" s="0" t="n">
         <v>0</v>
       </c>
@@ -3445,42 +3824,42 @@
       <c r="V38" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W38" s="0" t="n">
-        <v>0</v>
+      <c r="W38" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="X38" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y38" s="0" t="n">
         <f aca="false">X38-W38</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="D39" s="0" t="str">
-        <f aca="false">MID(C39,1,4)</f>
-        <v> ORI</v>
+        <f aca="false">MID(C39,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>0</v>
@@ -3492,19 +3871,29 @@
         <v>1</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>0.15</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>0.167</v>
+        <v>0.2</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <f aca="false">N39+O39</f>
+        <v>0.427</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R39" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S39" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T39" s="0" t="n">
         <v>0</v>
@@ -3516,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="X39" s="0" t="n">
         <v>1</v>
@@ -3528,53 +3917,63 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D40" s="0" t="str">
-        <f aca="false">MID(C40,1,4)</f>
-        <v> ATL</v>
+        <f aca="false">MID(C40,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L40" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="M40" s="0" t="n">
+        <v>0.143</v>
+      </c>
       <c r="N40" s="0" t="n">
-        <v>0.19</v>
+        <v>0.286</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <f aca="false">N40+O40</f>
+        <v>0.58</v>
       </c>
       <c r="Q40" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R40" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S40" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="T40" s="0" t="n">
         <v>0</v>
@@ -3604,20 +4003,20 @@
         <v>132</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="D41" s="0" t="str">
-        <f aca="false">MID(C41,1,4)</f>
-        <v> ORI</v>
+        <f aca="false">MID(C41,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>0</v>
@@ -3632,19 +4031,29 @@
         <v>0</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>0.143</v>
       </c>
       <c r="N41" s="0" t="n">
         <v>0.143</v>
       </c>
+      <c r="O41" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <f aca="false">N41+O41</f>
+        <v>0.543</v>
+      </c>
       <c r="Q41" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S41" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T41" s="0" t="n">
         <v>0</v>
@@ -3659,38 +4068,38 @@
         <v>0</v>
       </c>
       <c r="X41" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41" s="0" t="n">
         <f aca="false">X41-W41</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="C42" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="D42" s="0" t="str">
-        <f aca="false">MID(C42,1,4)</f>
-        <v> TAM</v>
+        <f aca="false">MID(C42,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>0</v>
@@ -3699,25 +4108,35 @@
         <v>0</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>0.143</v>
       </c>
       <c r="N42" s="0" t="n">
-        <v>0.176</v>
+        <v>0.143</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <f aca="false">N42+O42</f>
+        <v>0.286</v>
       </c>
       <c r="Q42" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T42" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" s="0" t="n">
         <v>0</v>
@@ -3729,11 +4148,11 @@
         <v>0</v>
       </c>
       <c r="X42" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="0" t="n">
         <f aca="false">X42-W42</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3747,17 +4166,17 @@
         <v>138</v>
       </c>
       <c r="D43" s="0" t="str">
-        <f aca="false">MID(C43,1,4)</f>
-        <v> DOD</v>
+        <f aca="false">MID(C43,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>0</v>
@@ -3769,22 +4188,32 @@
         <v>0</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>0.143</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>0.118</v>
+        <v>0.143</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <f aca="false">N43+O43</f>
+        <v>0.743</v>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R43" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S43" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T43" s="0" t="n">
         <v>0</v>
@@ -3796,10 +4225,10 @@
         <v>0</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="X43" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y43" s="0" t="n">
         <f aca="false">X43-W43</f>
@@ -3814,23 +4243,23 @@
         <v>140</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="D44" s="0" t="str">
-        <f aca="false">MID(C44,1,4)</f>
-        <v> TAM</v>
+        <f aca="false">MID(C44,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>0</v>
@@ -3839,37 +4268,47 @@
         <v>0</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <f aca="false">N44+O44</f>
+        <v>0.329</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X44" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="N44" s="0" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="Q44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="T44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X44" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="Y44" s="0" t="n">
         <f aca="false">X44-W44</f>
@@ -3878,29 +4317,29 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D45" s="0" t="str">
-        <f aca="false">MID(C45,1,4)</f>
-        <v> ATL</v>
+        <f aca="false">MID(C45,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>0</v>
@@ -3909,25 +4348,35 @@
         <v>0</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>0.1</v>
       </c>
       <c r="N45" s="0" t="n">
-        <v>0.091</v>
+        <v>0.15</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <f aca="false">N45+O45</f>
+        <v>0.332</v>
       </c>
       <c r="Q45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="R45" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S45" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T45" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" s="0" t="n">
         <v>0</v>
@@ -3939,32 +4388,32 @@
         <v>0</v>
       </c>
       <c r="X45" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45" s="0" t="n">
         <f aca="false">X45-W45</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="D46" s="0" t="str">
-        <f aca="false">MID(C46,1,4)</f>
-        <v> ORI</v>
+        <f aca="false">MID(C46,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>1</v>
@@ -3979,16 +4428,26 @@
         <v>0</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L46" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="M46" s="0" t="n">
+        <v>0.1</v>
+      </c>
       <c r="N46" s="0" t="n">
-        <v>0.091</v>
+        <v>0.1</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <f aca="false">N46+O46</f>
+        <v>0.5</v>
       </c>
       <c r="Q46" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R46" s="0" t="n">
         <v>0</v>
@@ -4005,15 +4464,15 @@
       <c r="V46" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W46" s="0" t="n">
-        <v>0</v>
+      <c r="W46" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="X46" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y46" s="0" t="n">
         <f aca="false">X46-W46</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4024,14 +4483,14 @@
         <v>147</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="D47" s="0" t="str">
-        <f aca="false">MID(C47,1,4)</f>
-        <v> ATL</v>
+        <f aca="false">MID(C47,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>1</v>
@@ -4054,11 +4513,21 @@
       <c r="L47" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="M47" s="0" t="n">
+        <v>0.083</v>
+      </c>
       <c r="N47" s="0" t="n">
-        <v>0.071</v>
+        <v>0.083</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <f aca="false">N47+O47</f>
+        <v>0.297</v>
       </c>
       <c r="Q47" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R47" s="0" t="n">
         <v>0</v>
@@ -4088,17 +4557,17 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D48" s="0" t="str">
-        <f aca="false">MID(C48,1,4)</f>
-        <v> TAM</v>
+        <f aca="false">MID(C48,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>15</v>
@@ -4124,9 +4593,19 @@
       <c r="L48" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="M48" s="0" t="n">
+        <v>0.067</v>
+      </c>
       <c r="N48" s="0" t="n">
         <v>0.133</v>
       </c>
+      <c r="O48" s="0" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <f aca="false">N48+O48</f>
+        <v>0.3</v>
+      </c>
       <c r="Q48" s="0" t="n">
         <v>2</v>
       </c>
@@ -4146,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="X48" s="0" t="n">
         <v>1</v>
@@ -4158,26 +4637,26 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D49" s="0" t="str">
-        <f aca="false">MID(C49,1,4)</f>
-        <v> ORI</v>
+        <f aca="false">MID(C49,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>0</v>
@@ -4189,22 +4668,32 @@
         <v>0</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <v>0.067</v>
       </c>
       <c r="N49" s="0" t="n">
-        <v>0</v>
+        <v>0.067</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <f aca="false">N49+O49</f>
+        <v>0.192</v>
       </c>
       <c r="Q49" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S49" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T49" s="0" t="n">
         <v>0</v>
@@ -4215,11 +4704,11 @@
       <c r="V49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W49" s="1" t="s">
-        <v>34</v>
+      <c r="W49" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X49" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="0" t="n">
         <f aca="false">X49-W49</f>
@@ -4228,23 +4717,23 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="D50" s="0" t="str">
-        <f aca="false">MID(C50,1,4)</f>
-        <v> ORI</v>
+        <f aca="false">MID(C50,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>0</v>
@@ -4264,8 +4753,18 @@
       <c r="L50" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="M50" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="N50" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <f aca="false">N50+O50</f>
+        <v>0.15</v>
       </c>
       <c r="Q50" s="0" t="n">
         <v>3</v>
@@ -4274,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="S50" s="0" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="T50" s="0" t="n">
         <v>0</v>
@@ -4285,11 +4784,11 @@
       <c r="V50" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W50" s="0" t="n">
-        <v>0</v>
+      <c r="W50" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="X50" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y50" s="0" t="n">
         <f aca="false">X50-W50</f>
@@ -4298,23 +4797,23 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="D51" s="0" t="str">
-        <f aca="false">MID(C51,1,4)</f>
-        <v> ORI</v>
+        <f aca="false">MID(C51,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G51" s="0" t="n">
         <v>0</v>
@@ -4329,19 +4828,29 @@
         <v>0</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="M51" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="N51" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="O51" s="0" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <f aca="false">N51+O51</f>
+        <v>0.188</v>
+      </c>
       <c r="Q51" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R51" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S51" s="0" t="n">
         <v>8</v>
@@ -4359,29 +4868,29 @@
         <v>0</v>
       </c>
       <c r="X51" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="0" t="n">
         <f aca="false">X51-W51</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="D52" s="0" t="str">
-        <f aca="false">MID(C52,1,4)</f>
-        <v> DOD</v>
+        <f aca="false">MID(C52,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>2</v>
@@ -4399,19 +4908,29 @@
         <v>0</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="M52" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="N52" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="O52" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <f aca="false">N52+O52</f>
+        <v>0.2</v>
+      </c>
       <c r="Q52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="R52" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S52" s="0" t="n">
         <v>8</v>
@@ -4425,15 +4944,15 @@
       <c r="V52" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W52" s="1" t="s">
-        <v>46</v>
+      <c r="W52" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Y52" s="0" t="n">
         <f aca="false">X52-W52</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4441,20 +4960,20 @@
         <v>159</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="D53" s="0" t="str">
-        <f aca="false">MID(C53,1,4)</f>
-        <v> ATL</v>
+        <f aca="false">MID(C53,1,3)</f>
+        <v>ORI</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>0</v>
@@ -4474,20 +4993,30 @@
       <c r="L53" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="M53" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="N53" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="O53" s="0" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <f aca="false">N53+O53</f>
+        <v>0.333</v>
+      </c>
       <c r="Q53" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R53" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T53" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53" s="0" t="n">
         <v>0</v>
@@ -4495,36 +5024,36 @@
       <c r="V53" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W53" s="1" t="s">
-        <v>46</v>
+      <c r="W53" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Y53" s="0" t="n">
         <f aca="false">X53-W53</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="0" t="str">
-        <f aca="false">MID(C54,1,4)</f>
-        <v> ORI</v>
+        <f aca="false">MID(C54,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>0</v>
@@ -4544,20 +5073,30 @@
       <c r="L54" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="M54" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="N54" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="O54" s="0" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <f aca="false">N54+O54</f>
+        <v>0.231</v>
+      </c>
       <c r="Q54" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R54" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S54" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T54" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U54" s="0" t="n">
         <v>0</v>
@@ -4565,81 +5104,91 @@
       <c r="V54" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W54" s="0" t="n">
-        <v>0</v>
+      <c r="W54" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="X54" s="0" t="n">
         <v>1</v>
       </c>
       <c r="Y54" s="0" t="n">
         <f aca="false">X54-W54</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C55" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="0" t="str">
+        <f aca="false">MID(C55,1,3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <f aca="false">N55+O55</f>
+        <v>0.1</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="0" t="str">
-        <f aca="false">MID(C55,1,4)</f>
-        <v> TAM</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S55" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="T55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W55" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="X55" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y55" s="0" t="n">
         <f aca="false">X55-W55</f>
@@ -4648,23 +5197,23 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D56" s="0" t="str">
-        <f aca="false">MID(C56,1,4)</f>
-        <v> DOD</v>
+        <f aca="false">MID(C56,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>7</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" s="0" t="n">
         <v>0</v>
@@ -4679,16 +5228,26 @@
         <v>0</v>
       </c>
       <c r="K56" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L56" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="M56" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="N56" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="O56" s="0" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <f aca="false">N56+O56</f>
+        <v>0.222</v>
+      </c>
       <c r="Q56" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R56" s="0" t="n">
         <v>0</v>
@@ -4709,26 +5268,26 @@
         <v>0</v>
       </c>
       <c r="X56" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="0" t="n">
         <f aca="false">X56-W56</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D57" s="0" t="str">
-        <f aca="false">MID(C57,1,4)</f>
-        <v> ATL</v>
+        <f aca="false">MID(C57,1,3)</f>
+        <v>TAM</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>7</v>
@@ -4749,25 +5308,35 @@
         <v>0</v>
       </c>
       <c r="K57" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="M57" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="N57" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="O57" s="0" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <f aca="false">N57+O57</f>
+        <v>0.125</v>
+      </c>
       <c r="Q57" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R57" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S57" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T57" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" s="0" t="n">
         <v>0</v>
@@ -4788,54 +5357,64 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="0" t="str">
-        <f aca="false">MID(C58,1,4)</f>
-        <v> ATL</v>
+        <f aca="false">MID(C58,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E58" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <f aca="false">N58+O58</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q58" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S58" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="T58" s="0" t="n">
         <v>0</v>
       </c>
@@ -4845,11 +5424,11 @@
       <c r="V58" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W58" s="0" t="n">
-        <v>0</v>
+      <c r="W58" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="X58" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y58" s="0" t="n">
         <f aca="false">X58-W58</f>
@@ -4858,23 +5437,23 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="0" t="str">
-        <f aca="false">MID(C59,1,4)</f>
-        <v> DOD</v>
+        <f aca="false">MID(C59,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G59" s="0" t="n">
         <v>0</v>
@@ -4894,17 +5473,27 @@
       <c r="L59" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="M59" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="N59" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="O59" s="0" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <f aca="false">N59+O59</f>
+        <v>0.167</v>
+      </c>
       <c r="Q59" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R59" s="0" t="n">
         <v>0</v>
       </c>
       <c r="S59" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T59" s="0" t="n">
         <v>0</v>
@@ -4915,11 +5504,11 @@
       <c r="V59" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W59" s="1" t="s">
-        <v>46</v>
+      <c r="W59" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="X59" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="0" t="n">
         <f aca="false">X59-W59</f>
@@ -4928,17 +5517,17 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="0" t="str">
-        <f aca="false">MID(C60,1,4)</f>
-        <v> DOD</v>
+        <f aca="false">MID(C60,1,3)</f>
+        <v>DOD</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>3</v>
@@ -4964,8 +5553,18 @@
       <c r="L60" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="M60" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="N60" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <f aca="false">N60+O60</f>
+        <v>0.5</v>
       </c>
       <c r="Q60" s="0" t="n">
         <v>3</v>
@@ -4998,17 +5597,17 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="0" t="str">
-        <f aca="false">MID(C61,1,4)</f>
-        <v> ATL</v>
+        <f aca="false">MID(C61,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>3</v>
@@ -5034,8 +5633,18 @@
       <c r="L61" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="M61" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="N61" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <f aca="false">N61+O61</f>
+        <v>0.571</v>
       </c>
       <c r="Q61" s="0" t="n">
         <v>4</v>
@@ -5056,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="X61" s="0" t="n">
         <v>1</v>
@@ -5068,17 +5677,17 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D62" s="0" t="str">
-        <f aca="false">MID(C62,1,4)</f>
-        <v> ATL</v>
+        <f aca="false">MID(C62,1,3)</f>
+        <v>ATL</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>1</v>
@@ -5104,7 +5713,17 @@
       <c r="L62" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="M62" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="N62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <f aca="false">N62+O62</f>
         <v>0</v>
       </c>
       <c r="Q62" s="0" t="n">
@@ -5133,6 +5752,86 @@
       </c>
       <c r="Y62" s="0" t="n">
         <f aca="false">X62-W62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="0" t="str">
+        <f aca="false">MID(C63,1,3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <f aca="false">N63+O63</f>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="0" t="n">
+        <f aca="false">X63-W63</f>
         <v>0</v>
       </c>
     </row>
